--- a/Data/Completing college/EducationReport(24).xlsx
+++ b/Data/Completing college/EducationReport(24).xlsx
@@ -127,7 +127,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="2" borderId="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -152,9 +152,6 @@
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="3" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -326,2206 +323,2861 @@
     <row r="4" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">08000</t>
+          <t xml:space="preserve">26000</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Colorado</t>
+          <t xml:space="preserve">Michigan</t>
         </is>
       </c>
       <c s="6" t="str" r="C4"/>
       <c s="7" r="D4">
-        <v>0.360900259214924</v>
+        <v>0.0942254162131314</v>
       </c>
       <c s="7" r="E4">
-        <v>0.21359872732048</v>
+        <v>0.142592557346347</v>
       </c>
       <c s="7" r="F4">
-        <v>0.155692828721562</v>
+        <v>0.173559667013656</v>
       </c>
       <c s="7" r="G4">
-        <v>0.130747970923046</v>
+        <v>0.217623416424808</v>
       </c>
       <c s="3" t="str" r="H4"/>
       <c s="7" r="I4">
-        <v>0.100772664830007</v>
+        <v>0.25525197996692</v>
       </c>
       <c s="7" r="J4">
-        <v>0.0763568569280475</v>
+        <v>0.306170964239884</v>
       </c>
     </row>
     <row r="5" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">08001</t>
+          <t xml:space="preserve">26001</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Adams, CO        </t>
+          <t xml:space="preserve">Alcona, MI        </t>
         </is>
       </c>
       <c s="8" r="C5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c s="7" r="D5">
-        <v>0.373368807804384</v>
+        <v>0.0502780352177943</v>
       </c>
       <c s="7" r="E5">
-        <v>0.264860446997357</v>
+        <v>0.0697092841512973</v>
       </c>
       <c s="7" r="F5">
-        <v>0.211549101818495</v>
+        <v>0.0901194353963084</v>
       </c>
       <c s="7" r="G5">
-        <v>0.211749307466808</v>
+        <v>0.109064523331101</v>
       </c>
       <c s="3" t="str" r="H5"/>
       <c s="7" r="I5">
-        <v>0.188518583017691</v>
+        <v>0.131519274376417</v>
       </c>
       <c s="7" r="J5">
-        <v>0.151358077126697</v>
+        <v>0.194321313046604</v>
       </c>
     </row>
     <row r="6" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">08003</t>
+          <t xml:space="preserve">26003</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Alamosa, CO        </t>
+          <t xml:space="preserve">Alger, MI        </t>
         </is>
       </c>
       <c s="8" r="C6">
         <v>7</v>
       </c>
       <c s="7" r="D6">
-        <v>0.401711063581567</v>
+        <v>0.0588110403397028</v>
       </c>
       <c s="7" r="E6">
-        <v>0.29109930255729</v>
+        <v>0.0949891852919971</v>
       </c>
       <c s="7" r="F6">
-        <v>0.230543318649046</v>
+        <v>0.114994175403561</v>
       </c>
       <c s="7" r="G6">
-        <v>0.173806466674448</v>
+        <v>0.146742920909471</v>
       </c>
       <c s="3" t="str" r="H6"/>
       <c s="7" r="I6">
-        <v>0.13847623089983</v>
+        <v>0.169826875515251</v>
       </c>
       <c s="7" r="J6">
-        <v>0.130527817403709</v>
+        <v>0.179397131987123</v>
       </c>
     </row>
     <row r="7" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">08005</t>
+          <t xml:space="preserve">26005</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Arapahoe, CO        </t>
+          <t xml:space="preserve">Allegan, MI        </t>
         </is>
       </c>
       <c s="8" r="C7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="7" r="D7">
-        <v>0.239244733167385</v>
+        <v>0.0543455836845363</v>
       </c>
       <c s="7" r="E7">
-        <v>0.114144225259884</v>
+        <v>0.101530935377492</v>
       </c>
       <c s="7" r="F7">
-        <v>0.0846829895679512</v>
+        <v>0.119752421959096</v>
       </c>
       <c s="7" r="G7">
-        <v>0.0934230477634572</v>
+        <v>0.158311542771759</v>
       </c>
       <c s="3" t="str" r="H7"/>
       <c s="7" r="I7">
-        <v>0.0892706287355594</v>
+        <v>0.199334514614979</v>
       </c>
       <c s="7" r="J7">
-        <v>0.0793063272987991</v>
+        <v>0.237290217952183</v>
       </c>
     </row>
     <row r="8" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">08007</t>
+          <t xml:space="preserve">26007</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Archuleta, CO        </t>
+          <t xml:space="preserve">Alpena, MI        </t>
         </is>
       </c>
       <c s="8" r="C8">
         <v>7</v>
       </c>
       <c s="7" r="D8">
-        <v>0.542274052478134</v>
+        <v>0.0753608045451577</v>
       </c>
       <c s="7" r="E8">
-        <v>0.276536312849162</v>
+        <v>0.0880035026269702</v>
       </c>
       <c s="7" r="F8">
-        <v>0.191446613088404</v>
+        <v>0.11415819489214</v>
       </c>
       <c s="7" r="G8">
-        <v>0.127107462248937</v>
+        <v>0.131641665498388</v>
       </c>
       <c s="3" t="str" r="H8"/>
       <c s="7" r="I8">
-        <v>0.0747199445663472</v>
+        <v>0.16025942287809</v>
       </c>
       <c s="7" r="J8">
-        <v>0.0596370769985287</v>
+        <v>0.168040229082274</v>
       </c>
     </row>
     <row r="9" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">08009</t>
+          <t xml:space="preserve">26009</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">Baca, CO        </t>
+          <t xml:space="preserve">Antrim, MI        </t>
         </is>
       </c>
       <c s="8" r="C9">
         <v>9</v>
       </c>
       <c s="7" r="D9">
-        <v>0.536577900214264</v>
+        <v>0.0812088226869092</v>
       </c>
       <c s="7" r="E9">
-        <v>0.37814871016692</v>
+        <v>0.118892508143322</v>
       </c>
       <c s="7" r="F9">
-        <v>0.279505076142132</v>
+        <v>0.136971686499795</v>
       </c>
       <c s="7" r="G9">
-        <v>0.21510152284264</v>
+        <v>0.193572542901716</v>
       </c>
       <c s="3" t="str" r="H9"/>
       <c s="7" r="I9">
-        <v>0.136150234741784</v>
+        <v>0.238661967762436</v>
       </c>
       <c s="7" r="J9">
-        <v>0.144597249508841</v>
+        <v>0.299915038232795</v>
       </c>
     </row>
     <row r="10" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">08011</t>
+          <t xml:space="preserve">26011</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">Bent, CO        </t>
+          <t xml:space="preserve">Arenac, MI        </t>
         </is>
       </c>
       <c s="8" r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="7" r="D10">
-        <v>0.57496740547588</v>
+        <v>0.0381806108897742</v>
       </c>
       <c s="7" r="E10">
-        <v>0.3912333242581</v>
+        <v>0.0621449275362319</v>
       </c>
       <c s="7" r="F10">
-        <v>0.273379231210557</v>
+        <v>0.0712533224289511</v>
       </c>
       <c s="7" r="G10">
-        <v>0.228387416398316</v>
+        <v>0.0908324907313785</v>
       </c>
       <c s="3" t="str" r="H10"/>
       <c s="7" r="I10">
-        <v>0.220004247186239</v>
+        <v>0.110011939280232</v>
       </c>
       <c s="7" r="J10">
-        <v>0.12916023804276</v>
+        <v>0.143374878458411</v>
       </c>
     </row>
     <row r="11" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">08013</t>
+          <t xml:space="preserve">26013</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">Boulder, CO        </t>
+          <t xml:space="preserve">Baraga, MI        </t>
         </is>
       </c>
       <c s="8" r="C11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c s="7" r="D11">
-        <v>0.24160027710426</v>
+        <v>0.045759186503351</v>
       </c>
       <c s="7" r="E11">
-        <v>0.125593378695935</v>
+        <v>0.0822244289970209</v>
       </c>
       <c s="7" r="F11">
-        <v>0.0868804251550044</v>
+        <v>0.0828493999225706</v>
       </c>
       <c s="7" r="G11">
-        <v>0.0720157312788111</v>
+        <v>0.109398064621945</v>
       </c>
       <c s="3" t="str" r="H11"/>
       <c s="7" r="I11">
-        <v>0.059680172255337</v>
+        <v>0.115787850755473</v>
       </c>
       <c s="7" r="J11">
-        <v>0.0451260082942168</v>
+        <v>0.146681628727156</v>
       </c>
     </row>
     <row r="12" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">08014</t>
+          <t xml:space="preserve">26015</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">Broomfield, CO        </t>
+          <t xml:space="preserve">Barry, MI        </t>
         </is>
       </c>
       <c s="8" r="C12">
-        <v>1</v>
-      </c>
-      <c s="9" t="str" r="D12"/>
-      <c s="9" t="str" r="E12"/>
-      <c s="9" t="str" r="F12"/>
-      <c s="9" t="str" r="G12"/>
+        <v>2</v>
+      </c>
+      <c s="7" r="D12">
+        <v>0.0625</v>
+      </c>
+      <c s="7" r="E12">
+        <v>0.10439145853769</v>
+      </c>
+      <c s="7" r="F12">
+        <v>0.107989464442493</v>
+      </c>
+      <c s="7" r="G12">
+        <v>0.147366153183238</v>
+      </c>
       <c s="3" t="str" r="H12"/>
       <c s="7" r="I12">
-        <v>0.0481331168831169</v>
+        <v>0.173433745386083</v>
       </c>
       <c s="7" r="J12">
-        <v>0.0341547773454388</v>
+        <v>0.240880935994494</v>
       </c>
     </row>
     <row r="13" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">08015</t>
+          <t xml:space="preserve">26017</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">Chaffee, CO        </t>
+          <t xml:space="preserve">Bay, MI        </t>
         </is>
       </c>
       <c s="8" r="C13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c s="7" r="D13">
-        <v>0.41602634467618</v>
+        <v>0.0618157859170158</v>
       </c>
       <c s="7" r="E13">
-        <v>0.271968139773895</v>
+        <v>0.0891682957170784</v>
       </c>
       <c s="7" r="F13">
-        <v>0.190323320339372</v>
+        <v>0.110150103230846</v>
       </c>
       <c s="7" r="G13">
-        <v>0.11489397651432</v>
+        <v>0.141814797831306</v>
       </c>
       <c s="3" t="str" r="H13"/>
       <c s="7" r="I13">
-        <v>0.0867957363497933</v>
+        <v>0.186444086886565</v>
       </c>
       <c s="7" r="J13">
-        <v>0.055911587758305</v>
+        <v>0.202992730800409</v>
       </c>
     </row>
     <row r="14" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">08017</t>
+          <t xml:space="preserve">26019</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">Cheyenne, CO        </t>
+          <t xml:space="preserve">Benzie, MI        </t>
         </is>
       </c>
       <c s="8" r="C14">
         <v>9</v>
       </c>
       <c s="7" r="D14">
-        <v>0.48892065761258</v>
+        <v>0.0892028254288597</v>
       </c>
       <c s="7" r="E14">
-        <v>0.280701754385965</v>
+        <v>0.122879480749373</v>
       </c>
       <c s="7" r="F14">
-        <v>0.191872085276482</v>
+        <v>0.150966038641546</v>
       </c>
       <c s="7" r="G14">
-        <v>0.158630328441649</v>
+        <v>0.200124080475051</v>
       </c>
       <c s="3" t="str" r="H14"/>
       <c s="7" r="I14">
-        <v>0.140243902439024</v>
+        <v>0.241293532338308</v>
       </c>
       <c s="7" r="J14">
-        <v>0.0696864111498258</v>
+        <v>0.328053631943421</v>
       </c>
     </row>
     <row r="15" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">08019</t>
+          <t xml:space="preserve">26021</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">Clear Creek, CO        </t>
+          <t xml:space="preserve">Berrien, MI        </t>
         </is>
       </c>
       <c s="8" r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="7" r="D15">
-        <v>0.355446664153788</v>
+        <v>0.0936002482216527</v>
       </c>
       <c s="7" r="E15">
-        <v>0.12294528259401</v>
+        <v>0.133060784493191</v>
       </c>
       <c s="7" r="F15">
-        <v>0.0824761904761905</v>
+        <v>0.167390349807289</v>
       </c>
       <c s="7" r="G15">
-        <v>0.065950462548493</v>
+        <v>0.196175836535758</v>
       </c>
       <c s="3" t="str" r="H15"/>
       <c s="7" r="I15">
-        <v>0.0461516411064928</v>
+        <v>0.241855328547764</v>
       </c>
       <c s="7" r="J15">
-        <v>0.0265206491621586</v>
+        <v>0.289884042681178</v>
       </c>
     </row>
     <row r="16" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">08021</t>
+          <t xml:space="preserve">26023</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">Conejos, CO        </t>
+          <t xml:space="preserve">Branch, MI        </t>
         </is>
       </c>
       <c s="8" r="C16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c s="7" r="D16">
-        <v>0.594166666666667</v>
+        <v>0.0554325906251537</v>
       </c>
       <c s="7" r="E16">
-        <v>0.480098887515451</v>
+        <v>0.087293055256934</v>
       </c>
       <c s="7" r="F16">
-        <v>0.362508614748449</v>
+        <v>0.103456099221054</v>
       </c>
       <c s="7" r="G16">
-        <v>0.279373368146214</v>
+        <v>0.106303630363036</v>
       </c>
       <c s="3" t="str" r="H16"/>
       <c s="7" r="I16">
-        <v>0.177205458389391</v>
+        <v>0.137624934245134</v>
       </c>
       <c s="7" r="J16">
-        <v>0.105400521983537</v>
+        <v>0.15370705244123</v>
       </c>
     </row>
     <row r="17" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">08023</t>
+          <t xml:space="preserve">26025</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">Costilla, CO        </t>
+          <t xml:space="preserve">Calhoun, MI        </t>
         </is>
       </c>
       <c s="8" r="C17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c s="7" r="D17">
-        <v>0.60974025974026</v>
+        <v>0.0814938129194631</v>
       </c>
       <c s="7" r="E17">
-        <v>0.540845070422535</v>
+        <v>0.118664217010699</v>
       </c>
       <c s="7" r="F17">
-        <v>0.395121951219512</v>
+        <v>0.138173464322409</v>
       </c>
       <c s="7" r="G17">
-        <v>0.318435754189944</v>
+        <v>0.160189489332904</v>
       </c>
       <c s="3" t="str" r="H17"/>
       <c s="7" r="I17">
-        <v>0.241242038216561</v>
+        <v>0.188941617922967</v>
       </c>
       <c s="7" r="J17">
-        <v>0.131386861313869</v>
+        <v>0.2180304040393</v>
       </c>
     </row>
     <row r="18" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">08025</t>
+          <t xml:space="preserve">26027</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">Crowley, CO        </t>
+          <t xml:space="preserve">Cass, MI        </t>
         </is>
       </c>
       <c s="8" r="C18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c s="7" r="D18">
-        <v>0.577314071696094</v>
+        <v>0.0595691833326196</v>
       </c>
       <c s="7" r="E18">
-        <v>0.440537745604964</v>
+        <v>0.0807969390920685</v>
       </c>
       <c s="7" r="F18">
-        <v>0.296954314720812</v>
+        <v>0.0924280016331145</v>
       </c>
       <c s="7" r="G18">
-        <v>0.224531691044393</v>
+        <v>0.120690660911159</v>
       </c>
       <c s="3" t="str" r="H18"/>
       <c s="7" r="I18">
-        <v>0.306847394250993</v>
+        <v>0.168528170761976</v>
       </c>
       <c s="7" r="J18">
-        <v>0.109738717339667</v>
+        <v>0.209134940606651</v>
       </c>
     </row>
     <row r="19" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">08027</t>
+          <t xml:space="preserve">26029</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">Custer, CO        </t>
+          <t xml:space="preserve">Charlevoix, MI        </t>
         </is>
       </c>
       <c s="8" r="C19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c s="7" r="D19">
-        <v>0.444767441860465</v>
+        <v>0.0752529271342503</v>
       </c>
       <c s="7" r="E19">
-        <v>0.21002132196162</v>
+        <v>0.131058783086971</v>
       </c>
       <c s="7" r="F19">
-        <v>0.162081784386617</v>
+        <v>0.160352359808064</v>
       </c>
       <c s="7" r="G19">
-        <v>0.0969387755102041</v>
+        <v>0.198482428115016</v>
       </c>
       <c s="3" t="str" r="H19"/>
       <c s="7" r="I19">
-        <v>0.0624253285543608</v>
+        <v>0.254144535651054</v>
       </c>
       <c s="7" r="J19">
-        <v>0.0171288743882545</v>
+        <v>0.325145776355849</v>
       </c>
     </row>
     <row r="20" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">08029</t>
+          <t xml:space="preserve">26031</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">Delta, CO        </t>
+          <t xml:space="preserve">Cheboygan, MI        </t>
         </is>
       </c>
       <c s="8" r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="7" r="D20">
-        <v>0.509249527012823</v>
+        <v>0.0627997259648322</v>
       </c>
       <c s="7" r="E20">
-        <v>0.319609159394346</v>
+        <v>0.0912131843028473</v>
       </c>
       <c s="7" r="F20">
-        <v>0.26953660542912</v>
+        <v>0.0995284014922221</v>
       </c>
       <c s="7" r="G20">
-        <v>0.198965338851526</v>
+        <v>0.139478504471501</v>
       </c>
       <c s="3" t="str" r="H20"/>
       <c s="7" r="I20">
-        <v>0.12833424060969</v>
+        <v>0.165554628857381</v>
       </c>
       <c s="7" r="J20">
-        <v>0.103588089113659</v>
+        <v>0.226669368730368</v>
       </c>
     </row>
     <row r="21" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">08031</t>
+          <t xml:space="preserve">26033</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">Denver, CO        </t>
+          <t xml:space="preserve">Chippewa, MI        </t>
         </is>
       </c>
       <c s="8" r="C21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c s="7" r="D21">
-        <v>0.385402260313203</v>
+        <v>0.0747717259434263</v>
       </c>
       <c s="7" r="E21">
-        <v>0.252878463441496</v>
+        <v>0.110606335937973</v>
       </c>
       <c s="7" r="F21">
-        <v>0.207963609870916</v>
+        <v>0.107973269864519</v>
       </c>
       <c s="7" r="G21">
-        <v>0.211051116487484</v>
+        <v>0.149748861114356</v>
       </c>
       <c s="3" t="str" r="H21"/>
       <c s="7" r="I21">
-        <v>0.14911911635982</v>
+        <v>0.176516272189349</v>
       </c>
       <c s="7" r="J21">
-        <v>0.0996761361978584</v>
+        <v>0.233753264710401</v>
       </c>
     </row>
     <row r="22" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">08033</t>
+          <t xml:space="preserve">26035</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B22">
         <is>
-          <t xml:space="preserve">Dolores, CO        </t>
+          <t xml:space="preserve">Clare, MI        </t>
         </is>
       </c>
       <c s="8" r="C22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c s="7" r="D22">
-        <v>0.603529411764706</v>
+        <v>0.0487934516849155</v>
       </c>
       <c s="7" r="E22">
-        <v>0.356020942408377</v>
+        <v>0.064589352042922</v>
       </c>
       <c s="7" r="F22">
-        <v>0.28169014084507</v>
+        <v>0.0679226876409975</v>
       </c>
       <c s="7" r="G22">
-        <v>0.239606953892668</v>
+        <v>0.0882670041719402</v>
       </c>
       <c s="3" t="str" r="H22"/>
       <c s="7" r="I22">
-        <v>0.116058394160584</v>
+        <v>0.110904809346979</v>
       </c>
       <c s="7" r="J22">
-        <v>0.0356960734319225</v>
+        <v>0.120583410914572</v>
       </c>
     </row>
     <row r="23" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">08035</t>
+          <t xml:space="preserve">26037</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">Douglas, CO        </t>
+          <t xml:space="preserve">Clinton, MI        </t>
         </is>
       </c>
       <c s="8" r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="7" r="D23">
-        <v>0.285331547220362</v>
+        <v>0.0656557099288377</v>
       </c>
       <c s="7" r="E23">
-        <v>0.114661524688382</v>
+        <v>0.113134584875727</v>
       </c>
       <c s="7" r="F23">
-        <v>0.0516198028066148</v>
+        <v>0.145782626940831</v>
       </c>
       <c s="7" r="G23">
-        <v>0.0304439859119855</v>
+        <v>0.212282629466845</v>
       </c>
       <c s="3" t="str" r="H23"/>
       <c s="7" r="I23">
-        <v>0.0245147223924633</v>
+        <v>0.278048181929731</v>
       </c>
       <c s="7" r="J23">
-        <v>0.0212437692855447</v>
+        <v>0.325798480827309</v>
       </c>
     </row>
     <row r="24" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">08037</t>
+          <t xml:space="preserve">26039</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B24">
         <is>
-          <t xml:space="preserve">Eagle, CO        </t>
+          <t xml:space="preserve">Crawford, MI        </t>
         </is>
       </c>
       <c s="8" r="C24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c s="7" r="D24">
-        <v>0.434135785772248</v>
+        <v>0.0546304411335086</v>
       </c>
       <c s="7" r="E24">
-        <v>0.103667855323484</v>
+        <v>0.0959696367251039</v>
       </c>
       <c s="7" r="F24">
-        <v>0.101698498837127</v>
+        <v>0.125605063919573</v>
       </c>
       <c s="7" r="G24">
-        <v>0.13393185664876</v>
+        <v>0.129470165130179</v>
       </c>
       <c s="3" t="str" r="H24"/>
       <c s="7" r="I24">
-        <v>0.126512588174571</v>
+        <v>0.152341886864447</v>
       </c>
       <c s="7" r="J24">
-        <v>0.0829457169436552</v>
+        <v>0.212029772681553</v>
       </c>
     </row>
     <row r="25" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">08039</t>
+          <t xml:space="preserve">26041</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B25">
         <is>
-          <t xml:space="preserve">Elbert, CO        </t>
+          <t xml:space="preserve">Delta, MI        </t>
         </is>
       </c>
       <c s="8" r="C25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c s="7" r="D25">
-        <v>0.45212068211631</v>
+        <v>0.0637885923600209</v>
       </c>
       <c s="7" r="E25">
-        <v>0.233217304823471</v>
+        <v>0.104622332418312</v>
       </c>
       <c s="7" r="F25">
-        <v>0.157697935295074</v>
+        <v>0.112722667102468</v>
       </c>
       <c s="7" r="G25">
-        <v>0.0751521773060715</v>
+        <v>0.170814050527274</v>
       </c>
       <c s="3" t="str" r="H25"/>
       <c s="7" r="I25">
-        <v>0.0285209490156487</v>
+        <v>0.178981752646993</v>
       </c>
       <c s="7" r="J25">
-        <v>0.0365038283187749</v>
+        <v>0.187506926231022</v>
       </c>
     </row>
     <row r="26" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">08041</t>
+          <t xml:space="preserve">26043</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B26">
         <is>
-          <t xml:space="preserve">El Paso, CO        </t>
+          <t xml:space="preserve">Dickinson, MI        </t>
         </is>
       </c>
       <c s="8" r="C26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c s="7" r="D26">
-        <v>0.271314726199564</v>
+        <v>0.0641578835679423</v>
       </c>
       <c s="7" r="E26">
-        <v>0.173017953558845</v>
+        <v>0.104473850031506</v>
       </c>
       <c s="7" r="F26">
-        <v>0.11681949294696</v>
+        <v>0.130202537280214</v>
       </c>
       <c s="7" r="G26">
-        <v>0.0874758129954435</v>
+        <v>0.166640114704477</v>
       </c>
       <c s="3" t="str" r="H26"/>
       <c s="7" r="I26">
-        <v>0.0657922846853446</v>
+        <v>0.189497111970749</v>
       </c>
       <c s="7" r="J26">
-        <v>0.0555044471388237</v>
+        <v>0.235337358886847</v>
       </c>
     </row>
     <row r="27" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">08043</t>
+          <t xml:space="preserve">26045</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B27">
         <is>
-          <t xml:space="preserve">Fremont, CO        </t>
+          <t xml:space="preserve">Eaton, MI        </t>
         </is>
       </c>
       <c s="8" r="C27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="7" r="D27">
-        <v>0.509163464380727</v>
+        <v>0.0975340234965686</v>
       </c>
       <c s="7" r="E27">
-        <v>0.331188826569889</v>
+        <v>0.158111591467251</v>
       </c>
       <c s="7" r="F27">
-        <v>0.246299086960376</v>
+        <v>0.18532772098617</v>
       </c>
       <c s="7" r="G27">
-        <v>0.194827482386945</v>
+        <v>0.217170813197303</v>
       </c>
       <c s="3" t="str" r="H27"/>
       <c s="7" r="I27">
-        <v>0.165449515905947</v>
+        <v>0.249210407580087</v>
       </c>
       <c s="7" r="J27">
-        <v>0.103221044862671</v>
+        <v>0.30250529241399</v>
       </c>
     </row>
     <row r="28" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">08045</t>
+          <t xml:space="preserve">26047</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B28">
         <is>
-          <t xml:space="preserve">Garfield, CO        </t>
+          <t xml:space="preserve">Emmet, MI        </t>
         </is>
       </c>
       <c s="8" r="C28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c s="7" r="D28">
-        <v>0.413635818029048</v>
+        <v>0.0890795791194198</v>
       </c>
       <c s="7" r="E28">
-        <v>0.196064973690231</v>
+        <v>0.175524423689867</v>
       </c>
       <c s="7" r="F28">
-        <v>0.147779677703508</v>
+        <v>0.192181420233463</v>
       </c>
       <c s="7" r="G28">
-        <v>0.146463921962416</v>
+        <v>0.261642675698561</v>
       </c>
       <c s="3" t="str" r="H28"/>
       <c s="7" r="I28">
-        <v>0.146761604819937</v>
+        <v>0.310959919752279</v>
       </c>
       <c s="7" r="J28">
-        <v>0.104013484134157</v>
+        <v>0.369644944182485</v>
       </c>
     </row>
     <row r="29" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">08047</t>
+          <t xml:space="preserve">26049</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B29">
         <is>
-          <t xml:space="preserve">Gilpin, CO        </t>
+          <t xml:space="preserve">Genesee, MI        </t>
         </is>
       </c>
       <c s="8" r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="7" r="D29">
-        <v>0.351424694708277</v>
+        <v>0.0741759373241016</v>
       </c>
       <c s="7" r="E29">
-        <v>0.129722921914358</v>
+        <v>0.109293947538252</v>
       </c>
       <c s="7" r="F29">
-        <v>0.0695573622402891</v>
+        <v>0.127660776852654</v>
       </c>
       <c s="7" r="G29">
-        <v>0.0585546986575264</v>
+        <v>0.162281207231866</v>
       </c>
       <c s="3" t="str" r="H29"/>
       <c s="7" r="I29">
-        <v>0.0576507326447274</v>
+        <v>0.189634445622097</v>
       </c>
       <c s="7" r="J29">
-        <v>0.0626603934987169</v>
+        <v>0.22237221793663</v>
       </c>
     </row>
     <row r="30" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">08049</t>
+          <t xml:space="preserve">26051</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B30">
         <is>
-          <t xml:space="preserve">Grand, CO        </t>
+          <t xml:space="preserve">Gladwin, MI        </t>
         </is>
       </c>
       <c s="8" r="C30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="7" r="D30">
-        <v>0.402819307988039</v>
+        <v>0.0296831127156037</v>
       </c>
       <c s="7" r="E30">
-        <v>0.162661737523105</v>
+        <v>0.060691719321583</v>
       </c>
       <c s="7" r="F30">
-        <v>0.125960637300843</v>
+        <v>0.0648457047539616</v>
       </c>
       <c s="7" r="G30">
-        <v>0.0771205226928013</v>
+        <v>0.0918177845750492</v>
       </c>
       <c s="3" t="str" r="H30"/>
       <c s="7" r="I30">
-        <v>0.0597139673105498</v>
+        <v>0.116335845451651</v>
       </c>
       <c s="7" r="J30">
-        <v>0.0555227904625495</v>
+        <v>0.142061429101904</v>
       </c>
     </row>
     <row r="31" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">08051</t>
+          <t xml:space="preserve">26053</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B31">
         <is>
-          <t xml:space="preserve">Gunnison, CO        </t>
+          <t xml:space="preserve">Gogebic, MI        </t>
         </is>
       </c>
       <c s="8" r="C31">
         <v>7</v>
       </c>
       <c s="7" r="D31">
-        <v>0.308056872037915</v>
+        <v>0.0477019223162724</v>
       </c>
       <c s="7" r="E31">
-        <v>0.10066172047323</v>
+        <v>0.0959740360095819</v>
       </c>
       <c s="7" r="F31">
-        <v>0.0939515426180931</v>
+        <v>0.114187404977195</v>
       </c>
       <c s="7" r="G31">
-        <v>0.0590310442144873</v>
+        <v>0.158151246852408</v>
       </c>
       <c s="3" t="str" r="H31"/>
       <c s="7" r="I31">
-        <v>0.0569306930693069</v>
+        <v>0.187484722561721</v>
       </c>
       <c s="7" r="J31">
-        <v>0.020417505951291</v>
+        <v>0.216672498250525</v>
       </c>
     </row>
     <row r="32" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">08053</t>
+          <t xml:space="preserve">26055</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B32">
         <is>
-          <t xml:space="preserve">Hinsdale, CO        </t>
+          <t xml:space="preserve">Grand Traverse, MI        </t>
         </is>
       </c>
       <c s="8" r="C32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c s="7" r="D32">
-        <v>0.488095238095238</v>
+        <v>0.105136663524976</v>
       </c>
       <c s="7" r="E32">
-        <v>0.130597014925373</v>
+        <v>0.190988077118214</v>
       </c>
       <c s="7" r="F32">
-        <v>0.0702247191011236</v>
+        <v>0.220543144984669</v>
       </c>
       <c s="7" r="G32">
-        <v>0.0691399662731872</v>
+        <v>0.260998822416556</v>
       </c>
       <c s="3" t="str" r="H32"/>
       <c s="7" r="I32">
-        <v>0.0492040520984081</v>
+        <v>0.295688624715495</v>
       </c>
       <c s="7" r="J32">
-        <v>0.0362903225806452</v>
+        <v>0.384231478500132</v>
       </c>
     </row>
     <row r="33" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">08055</t>
+          <t xml:space="preserve">26057</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B33">
         <is>
-          <t xml:space="preserve">Huerfano, CO        </t>
+          <t xml:space="preserve">Gratiot, MI        </t>
         </is>
       </c>
       <c s="8" r="C33">
         <v>6</v>
       </c>
       <c s="7" r="D33">
-        <v>0.610208227526663</v>
+        <v>0.0818407833984474</v>
       </c>
       <c s="7" r="E33">
-        <v>0.474105579184388</v>
+        <v>0.110902423754584</v>
       </c>
       <c s="7" r="F33">
-        <v>0.350060901339829</v>
+        <v>0.108737377952099</v>
       </c>
       <c s="7" r="G33">
-        <v>0.221533557641225</v>
+        <v>0.129126711075324</v>
       </c>
       <c s="3" t="str" r="H33"/>
       <c s="7" r="I33">
-        <v>0.164320154291225</v>
+        <v>0.133966729064387</v>
       </c>
       <c s="7" r="J33">
-        <v>0.0790142773322902</v>
+        <v>0.168127545034164</v>
       </c>
     </row>
     <row r="34" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">08057</t>
+          <t xml:space="preserve">26059</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B34">
         <is>
-          <t xml:space="preserve">Jackson, CO        </t>
+          <t xml:space="preserve">Hillsdale, MI        </t>
         </is>
       </c>
       <c s="8" r="C34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c s="7" r="D34">
-        <v>0.395498392282958</v>
+        <v>0.068400081732734</v>
       </c>
       <c s="7" r="E34">
-        <v>0.236111111111111</v>
+        <v>0.0982768018112448</v>
       </c>
       <c s="7" r="F34">
-        <v>0.179063360881543</v>
+        <v>0.113328581610834</v>
       </c>
       <c s="7" r="G34">
-        <v>0.13752276867031</v>
+        <v>0.120256800135158</v>
       </c>
       <c s="3" t="str" r="H34"/>
       <c s="7" r="I34">
-        <v>0.0973534971644612</v>
+        <v>0.147974125446529</v>
       </c>
       <c s="7" r="J34">
-        <v>0.139017608897127</v>
+        <v>0.183425343842742</v>
       </c>
     </row>
     <row r="35" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">08059</t>
+          <t xml:space="preserve">26061</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">Jefferson, CO        </t>
+          <t xml:space="preserve">Houghton, MI        </t>
         </is>
       </c>
       <c s="8" r="C35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c s="7" r="D35">
-        <v>0.254299562867523</v>
+        <v>0.0862669452928254</v>
       </c>
       <c s="7" r="E35">
-        <v>0.137869822485207</v>
+        <v>0.143928110416046</v>
       </c>
       <c s="7" r="F35">
-        <v>0.101651239040333</v>
+        <v>0.18018018018018</v>
       </c>
       <c s="7" r="G35">
-        <v>0.0817654069213463</v>
+        <v>0.229830923562379</v>
       </c>
       <c s="3" t="str" r="H35"/>
       <c s="7" r="I35">
-        <v>0.0652110798081679</v>
+        <v>0.276988966994088</v>
       </c>
       <c s="7" r="J35">
-        <v>0.0486087291806133</v>
+        <v>0.33581853508653</v>
       </c>
     </row>
     <row r="36" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">08061</t>
+          <t xml:space="preserve">26063</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B36">
         <is>
-          <t xml:space="preserve">Kiowa, CO        </t>
+          <t xml:space="preserve">Huron, MI        </t>
         </is>
       </c>
       <c s="8" r="C36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c s="7" r="D36">
-        <v>0.463768115942029</v>
+        <v>0.0479478119054091</v>
       </c>
       <c s="7" r="E36">
-        <v>0.285276073619632</v>
+        <v>0.0799553737448866</v>
       </c>
       <c s="7" r="F36">
-        <v>0.302304964539007</v>
+        <v>0.0886919905254847</v>
       </c>
       <c s="7" r="G36">
-        <v>0.137327188940092</v>
+        <v>0.108920413560952</v>
       </c>
       <c s="3" t="str" r="H36"/>
       <c s="7" r="I36">
-        <v>0.092255125284738</v>
+        <v>0.14093931837074</v>
       </c>
       <c s="7" r="J36">
-        <v>0.0290010741138561</v>
+        <v>0.162145922746781</v>
       </c>
     </row>
     <row r="37" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">08063</t>
+          <t xml:space="preserve">26065</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B37">
         <is>
-          <t xml:space="preserve">Kit Carson, CO        </t>
+          <t xml:space="preserve">Ingham, MI        </t>
         </is>
       </c>
       <c s="8" r="C37">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c s="7" r="D37">
-        <v>0.464033850493653</v>
+        <v>0.180892770009927</v>
       </c>
       <c s="7" r="E37">
-        <v>0.301431127012522</v>
+        <v>0.259507701989502</v>
       </c>
       <c s="7" r="F37">
-        <v>0.264502164502165</v>
+        <v>0.291729048979027</v>
       </c>
       <c s="7" r="G37">
-        <v>0.230491054434716</v>
+        <v>0.329570496412107</v>
       </c>
       <c s="3" t="str" r="H37"/>
       <c s="7" r="I37">
-        <v>0.175891758917589</v>
+        <v>0.35792980525384</v>
       </c>
       <c s="7" r="J37">
-        <v>0.108000835596407</v>
+        <v>0.40587707722804</v>
       </c>
     </row>
     <row r="38" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">08065</t>
+          <t xml:space="preserve">26067</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B38">
         <is>
-          <t xml:space="preserve">Lake, CO        </t>
+          <t xml:space="preserve">Ionia, MI        </t>
         </is>
       </c>
       <c s="8" r="C38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c s="7" r="D38">
-        <v>0.43855664900328</v>
+        <v>0.055895390070922</v>
       </c>
       <c s="7" r="E38">
-        <v>0.257320728614249</v>
+        <v>0.0801780917687751</v>
       </c>
       <c s="7" r="F38">
-        <v>0.183083511777302</v>
+        <v>0.0886272634913046</v>
       </c>
       <c s="7" r="G38">
-        <v>0.205095541401274</v>
+        <v>0.107704506409409</v>
       </c>
       <c s="3" t="str" r="H38"/>
       <c s="7" r="I38">
-        <v>0.154830718414533</v>
+        <v>0.137593239543008</v>
       </c>
       <c s="7" r="J38">
-        <v>0.117197689584498</v>
+        <v>0.160746314361958</v>
       </c>
     </row>
     <row r="39" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">08067</t>
+          <t xml:space="preserve">26069</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B39">
         <is>
-          <t xml:space="preserve">La Plata, CO        </t>
+          <t xml:space="preserve">Iosco, MI        </t>
         </is>
       </c>
       <c s="8" r="C39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c s="7" r="D39">
-        <v>0.398700771416971</v>
+        <v>0.076626196027981</v>
       </c>
       <c s="7" r="E39">
-        <v>0.202395051980524</v>
+        <v>0.112010964365811</v>
       </c>
       <c s="7" r="F39">
-        <v>0.142761290322581</v>
+        <v>0.103574033552152</v>
       </c>
       <c s="7" r="G39">
-        <v>0.0862260036463733</v>
+        <v>0.112679619510221</v>
       </c>
       <c s="3" t="str" r="H39"/>
       <c s="7" r="I39">
-        <v>0.0589398280802292</v>
+        <v>0.138812646131951</v>
       </c>
       <c s="7" r="J39">
-        <v>0.0340571200119937</v>
+        <v>0.160956459671663</v>
       </c>
     </row>
     <row r="40" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">08069</t>
+          <t xml:space="preserve">26071</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B40">
         <is>
-          <t xml:space="preserve">Larimer, CO        </t>
+          <t xml:space="preserve">Iron, MI        </t>
         </is>
       </c>
       <c s="8" r="C40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c s="7" r="D40">
-        <v>0.314581808199122</v>
+        <v>0.0556054819141766</v>
       </c>
       <c s="7" r="E40">
-        <v>0.17310403157598</v>
+        <v>0.100731025585896</v>
       </c>
       <c s="7" r="F40">
-        <v>0.114265737979131</v>
+        <v>0.100166770898478</v>
       </c>
       <c s="7" r="G40">
-        <v>0.0767966962013987</v>
+        <v>0.13712512926577</v>
       </c>
       <c s="3" t="str" r="H40"/>
       <c s="7" r="I40">
-        <v>0.059285541155903</v>
+        <v>0.176823285729859</v>
       </c>
       <c s="7" r="J40">
-        <v>0.0367583224992271</v>
+        <v>0.192087862826404</v>
       </c>
     </row>
     <row r="41" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">08071</t>
+          <t xml:space="preserve">26073</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B41">
         <is>
-          <t xml:space="preserve">Las Animas, CO        </t>
+          <t xml:space="preserve">Isabella, MI        </t>
         </is>
       </c>
       <c s="8" r="C41">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c s="7" r="D41">
-        <v>0.586163665374972</v>
+        <v>0.127486851131946</v>
       </c>
       <c s="7" r="E41">
-        <v>0.386327861479649</v>
+        <v>0.206104589114194</v>
       </c>
       <c s="7" r="F41">
-        <v>0.323940561364887</v>
+        <v>0.215234787860486</v>
       </c>
       <c s="7" r="G41">
-        <v>0.231442747348964</v>
+        <v>0.239195630899391</v>
       </c>
       <c s="3" t="str" r="H41"/>
       <c s="7" r="I41">
-        <v>0.169508710480229</v>
+        <v>0.252205632846963</v>
       </c>
       <c s="7" r="J41">
-        <v>0.118160488033787</v>
+        <v>0.301743662509892</v>
       </c>
     </row>
     <row r="42" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">08073</t>
+          <t xml:space="preserve">26075</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B42">
         <is>
-          <t xml:space="preserve">Lincoln, CO        </t>
+          <t xml:space="preserve">Jackson, MI        </t>
         </is>
       </c>
       <c s="8" r="C42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c s="7" r="D42">
-        <v>0.454863540937719</v>
+        <v>0.0763069029606555</v>
       </c>
       <c s="7" r="E42">
-        <v>0.312080536912752</v>
+        <v>0.12218983709528</v>
       </c>
       <c s="7" r="F42">
-        <v>0.255208333333333</v>
+        <v>0.129233686076106</v>
       </c>
       <c s="7" r="G42">
-        <v>0.182249644043664</v>
+        <v>0.162585812356979</v>
       </c>
       <c s="3" t="str" r="H42"/>
       <c s="7" r="I42">
-        <v>0.1965</v>
+        <v>0.185153426274249</v>
       </c>
       <c s="7" r="J42">
-        <v>0.112669360589494</v>
+        <v>0.226098329151764</v>
       </c>
     </row>
     <row r="43" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">08075</t>
+          <t xml:space="preserve">26077</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B43">
         <is>
-          <t xml:space="preserve">Logan, CO        </t>
+          <t xml:space="preserve">Kalamazoo, MI        </t>
         </is>
       </c>
       <c s="8" r="C43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c s="7" r="D43">
-        <v>0.415127079718281</v>
+        <v>0.145458594406373</v>
       </c>
       <c s="7" r="E43">
-        <v>0.300053966540745</v>
+        <v>0.230377944380586</v>
       </c>
       <c s="7" r="F43">
-        <v>0.209486166007905</v>
+        <v>0.271264589706275</v>
       </c>
       <c s="7" r="G43">
-        <v>0.176533578093927</v>
+        <v>0.311659022724922</v>
       </c>
       <c s="3" t="str" r="H43"/>
       <c s="7" r="I43">
-        <v>0.115343347639485</v>
+        <v>0.337209077615805</v>
       </c>
       <c s="7" r="J43">
-        <v>0.0857425090549885</v>
+        <v>0.404429626390711</v>
       </c>
     </row>
     <row r="44" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">08077</t>
+          <t xml:space="preserve">26079</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B44">
         <is>
-          <t xml:space="preserve">Mesa, CO        </t>
+          <t xml:space="preserve">Kalkaska, MI        </t>
         </is>
       </c>
       <c s="8" r="C44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c s="7" r="D44">
-        <v>0.409057971014493</v>
+        <v>0.0412265758091993</v>
       </c>
       <c s="7" r="E44">
-        <v>0.255483734237575</v>
+        <v>0.0785197103781175</v>
       </c>
       <c s="7" r="F44">
-        <v>0.205010106365353</v>
+        <v>0.0714201532115498</v>
       </c>
       <c s="7" r="G44">
-        <v>0.149990832656696</v>
+        <v>0.09735392395918</v>
       </c>
       <c s="3" t="str" r="H44"/>
       <c s="7" r="I44">
-        <v>0.101723925877337</v>
+        <v>0.115942028985507</v>
       </c>
       <c s="7" r="J44">
-        <v>0.0845140856809468</v>
+        <v>0.159018803683355</v>
       </c>
     </row>
     <row r="45" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">08079</t>
+          <t xml:space="preserve">26081</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B45">
         <is>
-          <t xml:space="preserve">Mineral, CO        </t>
+          <t xml:space="preserve">Kent, MI        </t>
         </is>
       </c>
       <c s="8" r="C45">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c s="7" r="D45">
-        <v>0.331210191082803</v>
+        <v>0.100772497009612</v>
       </c>
       <c s="7" r="E45">
-        <v>0.16530612244898</v>
+        <v>0.162546789316121</v>
       </c>
       <c s="7" r="F45">
-        <v>0.152173913043478</v>
+        <v>0.207109079238659</v>
       </c>
       <c s="7" r="G45">
-        <v>0.0839936608557845</v>
+        <v>0.258154174067496</v>
       </c>
       <c s="3" t="str" r="H45"/>
       <c s="7" r="I45">
-        <v>0.0385852090032154</v>
+        <v>0.30885881187086</v>
       </c>
       <c s="7" r="J45">
-        <v>0.0208955223880597</v>
+        <v>0.381001884068946</v>
       </c>
     </row>
     <row r="46" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">08081</t>
+          <t xml:space="preserve">26083</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B46">
         <is>
-          <t xml:space="preserve">Moffat, CO        </t>
+          <t xml:space="preserve">Keweenaw, MI        </t>
         </is>
       </c>
       <c s="8" r="C46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="7" r="D46">
-        <v>0.432002234012846</v>
+        <v>0.0314852840520192</v>
       </c>
       <c s="7" r="E46">
-        <v>0.24455205811138</v>
+        <v>0.0709219858156028</v>
       </c>
       <c s="7" r="F46">
-        <v>0.201157742402315</v>
+        <v>0.111111111111111</v>
       </c>
       <c s="7" r="G46">
-        <v>0.203831508805331</v>
+        <v>0.19094247246022</v>
       </c>
       <c s="3" t="str" r="H46"/>
       <c s="7" r="I46">
-        <v>0.119565217391304</v>
+        <v>0.235815602836879</v>
       </c>
       <c s="7" r="J46">
-        <v>0.0802013422818792</v>
+        <v>0.368261659600242</v>
       </c>
     </row>
     <row r="47" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">08083</t>
+          <t xml:space="preserve">26085</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B47">
         <is>
-          <t xml:space="preserve">Montezuma, CO        </t>
+          <t xml:space="preserve">Lake, MI        </t>
         </is>
       </c>
       <c s="8" r="C47">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c s="7" r="D47">
-        <v>0.513803230543319</v>
+        <v>0.0539815090963316</v>
       </c>
       <c s="7" r="E47">
-        <v>0.358000858000858</v>
+        <v>0.0687339522022516</v>
       </c>
       <c s="7" r="F47">
-        <v>0.252091514427181</v>
+        <v>0.065756196256955</v>
       </c>
       <c s="7" r="G47">
-        <v>0.188821557503868</v>
+        <v>0.0784781516825716</v>
       </c>
       <c s="3" t="str" r="H47"/>
       <c s="7" r="I47">
-        <v>0.102484472049689</v>
+        <v>0.0822417131791776</v>
       </c>
       <c s="7" r="J47">
-        <v>0.0912373356326795</v>
+        <v>0.131246046805819</v>
       </c>
     </row>
     <row r="48" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">08085</t>
+          <t xml:space="preserve">26087</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B48">
         <is>
-          <t xml:space="preserve">Montrose, CO        </t>
+          <t xml:space="preserve">Lapeer, MI        </t>
         </is>
       </c>
       <c s="8" r="C48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="7" r="D48">
-        <v>0.465079047428457</v>
+        <v>0.0504285659376561</v>
       </c>
       <c s="7" r="E48">
-        <v>0.301427079707623</v>
+        <v>0.0856919299571001</v>
       </c>
       <c s="7" r="F48">
-        <v>0.254822209897085</v>
+        <v>0.093470079450668</v>
       </c>
       <c s="7" r="G48">
-        <v>0.193489972384445</v>
+        <v>0.127218620469763</v>
       </c>
       <c s="3" t="str" r="H48"/>
       <c s="7" r="I48">
-        <v>0.150297986387841</v>
+        <v>0.16768899204244</v>
       </c>
       <c s="7" r="J48">
-        <v>0.112155078627238</v>
+        <v>0.186423841059603</v>
       </c>
     </row>
     <row r="49" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">08087</t>
+          <t xml:space="preserve">26089</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B49">
         <is>
-          <t xml:space="preserve">Morgan, CO        </t>
+          <t xml:space="preserve">Leelanau, MI        </t>
         </is>
       </c>
       <c s="8" r="C49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c s="7" r="D49">
-        <v>0.499908003679853</v>
+        <v>0.0934877475662974</v>
       </c>
       <c s="7" r="E49">
-        <v>0.347553906793415</v>
+        <v>0.193716067921913</v>
       </c>
       <c s="7" r="F49">
-        <v>0.324403885781572</v>
+        <v>0.241394805428238</v>
       </c>
       <c s="7" r="G49">
-        <v>0.285697137026589</v>
+        <v>0.313561041596212</v>
       </c>
       <c s="3" t="str" r="H49"/>
       <c s="7" r="I49">
-        <v>0.214126435500056</v>
+        <v>0.390039963110975</v>
       </c>
       <c s="7" r="J49">
-        <v>0.192833038727302</v>
+        <v>0.472560447804259</v>
       </c>
     </row>
     <row r="50" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">08089</t>
+          <t xml:space="preserve">26091</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B50">
         <is>
-          <t xml:space="preserve">Otero, CO        </t>
+          <t xml:space="preserve">Lenawee, MI        </t>
         </is>
       </c>
       <c s="8" r="C50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c s="7" r="D50">
-        <v>0.516771571986296</v>
+        <v>0.0708493889033356</v>
       </c>
       <c s="7" r="E50">
-        <v>0.400245926836766</v>
+        <v>0.118783063580405</v>
       </c>
       <c s="7" r="F50">
-        <v>0.306214513494594</v>
+        <v>0.12850877971699</v>
       </c>
       <c s="7" r="G50">
-        <v>0.242711812936532</v>
+        <v>0.162678235449612</v>
       </c>
       <c s="3" t="str" r="H50"/>
       <c s="7" r="I50">
-        <v>0.176564114794499</v>
+        <v>0.194197159615327</v>
       </c>
       <c s="7" r="J50">
-        <v>0.121583188497393</v>
+        <v>0.21853452637361</v>
       </c>
     </row>
     <row r="51" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">08091</t>
+          <t xml:space="preserve">26093</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B51">
         <is>
-          <t xml:space="preserve">Ouray, CO        </t>
+          <t xml:space="preserve">Livingston, MI        </t>
         </is>
       </c>
       <c s="8" r="C51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c s="7" r="D51">
-        <v>0.442827442827443</v>
+        <v>0.0794808322740349</v>
       </c>
       <c s="7" r="E51">
-        <v>0.227786752827141</v>
+        <v>0.163298872180451</v>
       </c>
       <c s="7" r="F51">
-        <v>0.125461254612546</v>
+        <v>0.195623626335651</v>
       </c>
       <c s="7" r="G51">
-        <v>0.0663991244071507</v>
+        <v>0.281512314930806</v>
       </c>
       <c s="3" t="str" r="H51"/>
       <c s="7" r="I51">
-        <v>0.0248533929070092</v>
+        <v>0.317630939370708</v>
       </c>
       <c s="7" r="J51">
-        <v>0.0137982940291019</v>
+        <v>0.378330606520977</v>
       </c>
     </row>
     <row r="52" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">08093</t>
+          <t xml:space="preserve">26095</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B52">
         <is>
-          <t xml:space="preserve">Park, CO        </t>
+          <t xml:space="preserve">Luce, MI        </t>
         </is>
       </c>
       <c s="8" r="C52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c s="7" r="D52">
-        <v>0.377494014365523</v>
+        <v>0.0631031922791388</v>
       </c>
       <c s="7" r="E52">
-        <v>0.176616145994432</v>
+        <v>0.111769059955588</v>
       </c>
       <c s="7" r="F52">
-        <v>0.0892095102621418</v>
+        <v>0.0955129887168722</v>
       </c>
       <c s="7" r="G52">
-        <v>0.0665316748625976</v>
+        <v>0.117718692916582</v>
       </c>
       <c s="3" t="str" r="H52"/>
       <c s="7" r="I52">
-        <v>0.0467631750162655</v>
+        <v>0.138297872340426</v>
       </c>
       <c s="7" r="J52">
-        <v>0.0254139668826494</v>
+        <v>0.178991992463495</v>
       </c>
     </row>
     <row r="53" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">08095</t>
+          <t xml:space="preserve">26097</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B53">
         <is>
-          <t xml:space="preserve">Phillips, CO        </t>
+          <t xml:space="preserve">Mackinac, MI        </t>
         </is>
       </c>
       <c s="8" r="C53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c s="7" r="D53">
-        <v>0.437941869599372</v>
+        <v>0.0604838709677419</v>
       </c>
       <c s="7" r="E53">
-        <v>0.309598603839442</v>
+        <v>0.092761656341702</v>
       </c>
       <c s="7" r="F53">
-        <v>0.210415938483048</v>
+        <v>0.104108440469536</v>
       </c>
       <c s="7" r="G53">
-        <v>0.184394798266089</v>
+        <v>0.149161620866325</v>
       </c>
       <c s="3" t="str" r="H53"/>
       <c s="7" r="I53">
-        <v>0.143060498220641</v>
+        <v>0.186614730878187</v>
       </c>
       <c s="7" r="J53">
-        <v>0.132280701754386</v>
+        <v>0.247012894830238</v>
       </c>
     </row>
     <row r="54" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">08097</t>
+          <t xml:space="preserve">26099</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B54">
         <is>
-          <t xml:space="preserve">Pitkin, CO        </t>
+          <t xml:space="preserve">Macomb, MI        </t>
         </is>
       </c>
       <c s="8" r="C54">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c s="7" r="D54">
-        <v>0.159144893111639</v>
+        <v>0.0728095953188515</v>
       </c>
       <c s="7" r="E54">
-        <v>0.0514352324056535</v>
+        <v>0.107728579353472</v>
       </c>
       <c s="7" r="F54">
-        <v>0.0529145145989248</v>
+        <v>0.134700194570241</v>
       </c>
       <c s="7" r="G54">
-        <v>0.0368309485956545</v>
+        <v>0.175697414880672</v>
       </c>
       <c s="3" t="str" r="H54"/>
       <c s="7" r="I54">
-        <v>0.0372547522711657</v>
+        <v>0.221953888467276</v>
       </c>
       <c s="7" r="J54">
-        <v>0.0249126199152227</v>
+        <v>0.261490797890698</v>
       </c>
     </row>
     <row r="55" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">08099</t>
+          <t xml:space="preserve">26101</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B55">
         <is>
-          <t xml:space="preserve">Prowers, CO        </t>
+          <t xml:space="preserve">Manistee, MI        </t>
         </is>
       </c>
       <c s="8" r="C55">
         <v>7</v>
       </c>
       <c s="7" r="D55">
-        <v>0.472594752186589</v>
+        <v>0.060352422907489</v>
       </c>
       <c s="7" r="E55">
-        <v>0.346085287261758</v>
+        <v>0.0965570983281383</v>
       </c>
       <c s="7" r="F55">
-        <v>0.297504324190759</v>
+        <v>0.104795129625829</v>
       </c>
       <c s="7" r="G55">
-        <v>0.280163838502048</v>
+        <v>0.1415770609319</v>
       </c>
       <c s="3" t="str" r="H55"/>
       <c s="7" r="I55">
-        <v>0.192662871600253</v>
+        <v>0.177099906731772</v>
       </c>
       <c s="7" r="J55">
-        <v>0.178302621334025</v>
+        <v>0.220183486238532</v>
       </c>
     </row>
     <row r="56" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">08101</t>
+          <t xml:space="preserve">26103</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B56">
         <is>
-          <t xml:space="preserve">Pueblo, CO        </t>
+          <t xml:space="preserve">Marquette, MI        </t>
         </is>
       </c>
       <c s="8" r="C56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c s="7" r="D56">
-        <v>0.488491131448935</v>
+        <v>0.106650380894217</v>
       </c>
       <c s="7" r="E56">
-        <v>0.334954905711943</v>
+        <v>0.175034724008437</v>
       </c>
       <c s="7" r="F56">
-        <v>0.2606005734118</v>
+        <v>0.202637663379418</v>
       </c>
       <c s="7" r="G56">
-        <v>0.186783231972198</v>
+        <v>0.237110697763152</v>
       </c>
       <c s="3" t="str" r="H56"/>
       <c s="7" r="I56">
-        <v>0.137162174994777</v>
+        <v>0.284045034538441</v>
       </c>
       <c s="7" r="J56">
-        <v>0.0946763565554532</v>
+        <v>0.341084397131129</v>
       </c>
     </row>
     <row r="57" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A57">
         <is>
-          <t xml:space="preserve">08103</t>
+          <t xml:space="preserve">26105</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B57">
         <is>
-          <t xml:space="preserve">Rio Blanco, CO        </t>
+          <t xml:space="preserve">Mason, MI        </t>
         </is>
       </c>
       <c s="8" r="C57">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c s="7" r="D57">
-        <v>0.343206951026856</v>
+        <v>0.0701083989705997</v>
       </c>
       <c s="7" r="E57">
-        <v>0.207402875497094</v>
+        <v>0.0998258489861923</v>
       </c>
       <c s="7" r="F57">
-        <v>0.187947165657678</v>
+        <v>0.118361514646344</v>
       </c>
       <c s="7" r="G57">
-        <v>0.116152450090744</v>
+        <v>0.158671396986992</v>
       </c>
       <c s="3" t="str" r="H57"/>
       <c s="7" r="I57">
-        <v>0.0722727272727273</v>
+        <v>0.193534144427002</v>
       </c>
       <c s="7" r="J57">
-        <v>0.0853234407604915</v>
+        <v>0.232956961307696</v>
       </c>
     </row>
     <row r="58" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A58">
         <is>
-          <t xml:space="preserve">08105</t>
+          <t xml:space="preserve">26107</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B58">
         <is>
-          <t xml:space="preserve">Rio Grande, CO        </t>
+          <t xml:space="preserve">Mecosta, MI        </t>
         </is>
       </c>
       <c s="8" r="C58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="7" r="D58">
-        <v>0.479642139857586</v>
+        <v>0.102915231454255</v>
       </c>
       <c s="7" r="E58">
-        <v>0.379664952728479</v>
+        <v>0.149301566184919</v>
       </c>
       <c s="7" r="F58">
-        <v>0.303318946271767</v>
+        <v>0.179163378058406</v>
       </c>
       <c s="7" r="G58">
-        <v>0.219123005402689</v>
+        <v>0.190958222527237</v>
       </c>
       <c s="3" t="str" r="H58"/>
       <c s="7" r="I58">
-        <v>0.155373978629793</v>
+        <v>0.214782779634362</v>
       </c>
       <c s="7" r="J58">
-        <v>0.109147869674185</v>
+        <v>0.243823506196227</v>
       </c>
     </row>
     <row r="59" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A59">
         <is>
-          <t xml:space="preserve">08107</t>
+          <t xml:space="preserve">26109</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B59">
         <is>
-          <t xml:space="preserve">Routt, CO        </t>
+          <t xml:space="preserve">Menominee, MI        </t>
         </is>
       </c>
       <c s="8" r="C59">
         <v>7</v>
       </c>
       <c s="7" r="D59">
-        <v>0.36804008908686</v>
+        <v>0.0519107576761652</v>
       </c>
       <c s="7" r="E59">
-        <v>0.118629062855697</v>
+        <v>0.0813499804916114</v>
       </c>
       <c s="7" r="F59">
-        <v>0.0833880499015102</v>
+        <v>0.0927092164224295</v>
       </c>
       <c s="7" r="G59">
-        <v>0.0472601190924851</v>
+        <v>0.109733594741091</v>
       </c>
       <c s="3" t="str" r="H59"/>
       <c s="7" r="I59">
-        <v>0.032104782211392</v>
+        <v>0.137793024585477</v>
       </c>
       <c s="7" r="J59">
-        <v>0.0332709280556298</v>
+        <v>0.174614065180103</v>
       </c>
     </row>
     <row r="60" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">08109</t>
+          <t xml:space="preserve">26111</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B60">
         <is>
-          <t xml:space="preserve">Saguache, CO        </t>
+          <t xml:space="preserve">Midland, MI        </t>
         </is>
       </c>
       <c s="8" r="C60">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c s="7" r="D60">
-        <v>0.555894308943089</v>
+        <v>0.21589030438588</v>
       </c>
       <c s="7" r="E60">
-        <v>0.407258064516129</v>
+        <v>0.227178525609395</v>
       </c>
       <c s="7" r="F60">
-        <v>0.341298145506419</v>
+        <v>0.274246499904687</v>
       </c>
       <c s="7" r="G60">
-        <v>0.3</v>
+        <v>0.292595846496065</v>
       </c>
       <c s="3" t="str" r="H60"/>
       <c s="7" r="I60">
-        <v>0.230281690140845</v>
+        <v>0.31986430322191</v>
       </c>
       <c s="7" r="J60">
-        <v>0.133403361344538</v>
+        <v>0.355769230769231</v>
       </c>
     </row>
     <row r="61" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">08111</t>
+          <t xml:space="preserve">26113</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B61">
         <is>
-          <t xml:space="preserve">San Juan, CO        </t>
+          <t xml:space="preserve">Missaukee, MI        </t>
         </is>
       </c>
       <c s="8" r="C61">
         <v>9</v>
       </c>
       <c s="7" r="D61">
-        <v>0.414473684210526</v>
+        <v>0.042191921790584</v>
       </c>
       <c s="7" r="E61">
-        <v>0.182978723404255</v>
+        <v>0.0708260105448155</v>
       </c>
       <c s="7" r="F61">
-        <v>0.172786177105832</v>
+        <v>0.0803618248557944</v>
       </c>
       <c s="7" r="G61">
-        <v>0.0794392523364486</v>
+        <v>0.101943798859075</v>
       </c>
       <c s="3" t="str" r="H61"/>
       <c s="7" r="I61">
-        <v>0.0862068965517241</v>
+        <v>0.135299304398942</v>
       </c>
       <c s="7" r="J61">
-        <v>0.0342342342342342</v>
+        <v>0.152231718898386</v>
       </c>
     </row>
     <row r="62" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">08113</t>
+          <t xml:space="preserve">26115</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B62">
         <is>
-          <t xml:space="preserve">San Miguel, CO        </t>
+          <t xml:space="preserve">Monroe, MI        </t>
         </is>
       </c>
       <c s="8" r="C62">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c s="7" r="D62">
-        <v>0.514514514514514</v>
+        <v>0.0505931788649442</v>
       </c>
       <c s="7" r="E62">
-        <v>0.149043303121853</v>
+        <v>0.0885853578821222</v>
       </c>
       <c s="7" r="F62">
-        <v>0.0651916238640853</v>
+        <v>0.105175535599276</v>
       </c>
       <c s="7" r="G62">
-        <v>0.0636287274254515</v>
+        <v>0.143432929222219</v>
       </c>
       <c s="3" t="str" r="H62"/>
       <c s="7" r="I62">
-        <v>0.0366501740883269</v>
+        <v>0.17583403201591</v>
       </c>
       <c s="7" r="J62">
-        <v>0.0171419416853573</v>
+        <v>0.216449224905633</v>
       </c>
     </row>
     <row r="63" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">08115</t>
+          <t xml:space="preserve">26117</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B63">
         <is>
-          <t xml:space="preserve">Sedgwick, CO        </t>
+          <t xml:space="preserve">Montcalm, MI        </t>
         </is>
       </c>
       <c s="8" r="C63">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c s="7" r="D63">
-        <v>0.491080277502478</v>
+        <v>0.0561643835616438</v>
       </c>
       <c s="7" r="E63">
-        <v>0.331081081081081</v>
+        <v>0.0877490774907749</v>
       </c>
       <c s="7" r="F63">
-        <v>0.29059379926432</v>
+        <v>0.0817379168057283</v>
       </c>
       <c s="7" r="G63">
-        <v>0.206914344685243</v>
+        <v>0.108139534883721</v>
       </c>
       <c s="3" t="str" r="H63"/>
       <c s="7" r="I63">
-        <v>0.151711924439197</v>
+        <v>0.128383786074102</v>
       </c>
       <c s="7" r="J63">
-        <v>0.112635791881075</v>
+        <v>0.139293854556401</v>
       </c>
     </row>
     <row r="64" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A64">
         <is>
-          <t xml:space="preserve">08117</t>
+          <t xml:space="preserve">26119</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B64">
         <is>
-          <t xml:space="preserve">Summit, CO        </t>
+          <t xml:space="preserve">Montmorency, MI        </t>
         </is>
       </c>
       <c s="8" r="C64">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c s="7" r="D64">
-        <v>0.320289855072464</v>
+        <v>0.0379177377892031</v>
       </c>
       <c s="7" r="E64">
-        <v>0.047093023255814</v>
+        <v>0.0643312101910828</v>
       </c>
       <c s="7" r="F64">
-        <v>0.0446212383258388</v>
+        <v>0.0874343048256092</v>
       </c>
       <c s="7" r="G64">
-        <v>0.0674897119341564</v>
+        <v>0.0821935823250921</v>
       </c>
       <c s="3" t="str" r="H64"/>
       <c s="7" r="I64">
-        <v>0.0459171132196057</v>
+        <v>0.105110260134689</v>
       </c>
       <c s="7" r="J64">
-        <v>0.0545634920634921</v>
+        <v>0.14336818932306</v>
       </c>
     </row>
     <row r="65" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A65">
         <is>
-          <t xml:space="preserve">08119</t>
+          <t xml:space="preserve">26121</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B65">
         <is>
-          <t xml:space="preserve">Teller, CO        </t>
+          <t xml:space="preserve">Muskegon, MI        </t>
         </is>
       </c>
       <c s="8" r="C65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D65">
-        <v>0.323068893528184</v>
+        <v>0.0683499457342099</v>
       </c>
       <c s="7" r="E65">
-        <v>0.167105529673891</v>
+        <v>0.106186850279793</v>
       </c>
       <c s="7" r="F65">
-        <v>0.0790423484119346</v>
+        <v>0.111492178098676</v>
       </c>
       <c s="7" r="G65">
-        <v>0.0598314606741573</v>
+        <v>0.138872272480467</v>
       </c>
       <c s="3" t="str" r="H65"/>
       <c s="7" r="I65">
-        <v>0.0585839781255454</v>
+        <v>0.167601163713303</v>
       </c>
       <c s="7" r="J65">
-        <v>0.0215883610575168</v>
+        <v>0.204657674973489</v>
       </c>
     </row>
     <row r="66" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A66">
         <is>
-          <t xml:space="preserve">08121</t>
+          <t xml:space="preserve">26123</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B66">
         <is>
-          <t xml:space="preserve">Washington, CO        </t>
+          <t xml:space="preserve">Newaygo, MI        </t>
         </is>
       </c>
       <c s="8" r="C66">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c s="7" r="D66">
-        <v>0.491582491582492</v>
+        <v>0.0549080374587348</v>
       </c>
       <c s="7" r="E66">
-        <v>0.344682133172642</v>
+        <v>0.0889063729346971</v>
       </c>
       <c s="7" r="F66">
-        <v>0.241433021806854</v>
+        <v>0.105256575930635</v>
       </c>
       <c s="7" r="G66">
-        <v>0.182860591430296</v>
+        <v>0.113983316297933</v>
       </c>
       <c s="3" t="str" r="H66"/>
       <c s="7" r="I66">
-        <v>0.112592592592593</v>
+        <v>0.132386835069605</v>
       </c>
       <c s="7" r="J66">
-        <v>0.0858242083456644</v>
+        <v>0.171277391154311</v>
       </c>
     </row>
     <row r="67" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">08123</t>
+          <t xml:space="preserve">26125</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B67">
         <is>
-          <t xml:space="preserve">Weld, CO        </t>
+          <t xml:space="preserve">Oakland, MI        </t>
         </is>
       </c>
       <c s="8" r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="7" r="D67">
-        <v>0.429008749685879</v>
+        <v>0.164439820160468</v>
       </c>
       <c s="7" r="E67">
-        <v>0.312094180472116</v>
+        <v>0.240553088984666</v>
       </c>
       <c s="7" r="F67">
-        <v>0.250973938310812</v>
+        <v>0.301504440819286</v>
       </c>
       <c s="7" r="G67">
-        <v>0.203614287731187</v>
+        <v>0.382125484274238</v>
       </c>
       <c s="3" t="str" r="H67"/>
       <c s="7" r="I67">
-        <v>0.149610145849805</v>
+        <v>0.427359973674318</v>
       </c>
       <c s="7" r="J67">
-        <v>0.119113281624054</v>
+        <v>0.489375569897042</v>
       </c>
     </row>
     <row r="68" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">08125</t>
+          <t xml:space="preserve">26127</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B68">
         <is>
-          <t xml:space="preserve">Yuma, CO        </t>
+          <t xml:space="preserve">Oceana, MI        </t>
         </is>
       </c>
       <c s="8" r="C68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="7" r="D68">
-        <v>0.498943729594776</v>
+        <v>0.0547973965987823</v>
       </c>
       <c s="7" r="E68">
-        <v>0.341709401709402</v>
+        <v>0.0923297719661936</v>
       </c>
       <c s="7" r="F68">
-        <v>0.21468830059778</v>
+        <v>0.104129646741062</v>
       </c>
       <c s="7" r="G68">
-        <v>0.204731861198738</v>
+        <v>0.125890043188981</v>
       </c>
       <c s="3" t="str" r="H68"/>
       <c s="7" r="I68">
-        <v>0.136682068862722</v>
+        <v>0.147399324212042</v>
       </c>
       <c s="7" r="J68">
-        <v>0.125210212505733</v>
-      </c>
-    </row>
-    <row r="69" ht="6" customHeight="1"/>
-    <row r="70" ht="222.75" customHeight="1">
-      <c s="10" t="inlineStr" r="A70">
+        <v>0.202680157149777</v>
+      </c>
+    </row>
+    <row r="69" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A69">
+        <is>
+          <t xml:space="preserve">26129</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B69">
+        <is>
+          <t xml:space="preserve">Ogemaw, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C69">
+        <v>9</v>
+      </c>
+      <c s="7" r="D69">
+        <v>0.0404395604395604</v>
+      </c>
+      <c s="7" r="E69">
+        <v>0.0678882547311505</v>
+      </c>
+      <c s="7" r="F69">
+        <v>0.0722190807011875</v>
+      </c>
+      <c s="7" r="G69">
+        <v>0.0956487393851623</v>
+      </c>
+      <c s="3" t="str" r="H69"/>
+      <c s="7" r="I69">
+        <v>0.108347013511807</v>
+      </c>
+      <c s="7" r="J69">
+        <v>0.132914637272494</v>
+      </c>
+    </row>
+    <row r="70" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A70">
+        <is>
+          <t xml:space="preserve">26131</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B70">
+        <is>
+          <t xml:space="preserve">Ontonagon, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C70">
+        <v>9</v>
+      </c>
+      <c s="7" r="D70">
+        <v>0.0607897471423623</v>
+      </c>
+      <c s="7" r="E70">
+        <v>0.0892156862745098</v>
+      </c>
+      <c s="7" r="F70">
+        <v>0.0921264924169087</v>
+      </c>
+      <c s="7" r="G70">
+        <v>0.129852517375826</v>
+      </c>
+      <c s="3" t="str" r="H70"/>
+      <c s="7" r="I70">
+        <v>0.166635704997213</v>
+      </c>
+      <c s="7" r="J70">
+        <v>0.149835796387521</v>
+      </c>
+    </row>
+    <row r="71" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A71">
+        <is>
+          <t xml:space="preserve">26133</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B71">
+        <is>
+          <t xml:space="preserve">Osceola, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C71">
+        <v>9</v>
+      </c>
+      <c s="7" r="D71">
+        <v>0.0647081170064581</v>
+      </c>
+      <c s="7" r="E71">
+        <v>0.0835011902581945</v>
+      </c>
+      <c s="7" r="F71">
+        <v>0.0866223681050356</v>
+      </c>
+      <c s="7" r="G71">
+        <v>0.112951506685292</v>
+      </c>
+      <c s="3" t="str" r="H71"/>
+      <c s="7" r="I71">
+        <v>0.13080354338129</v>
+      </c>
+      <c s="7" r="J71">
+        <v>0.15218333849489</v>
+      </c>
+    </row>
+    <row r="72" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A72">
+        <is>
+          <t xml:space="preserve">26135</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B72">
+        <is>
+          <t xml:space="preserve">Oscoda, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C72">
+        <v>9</v>
+      </c>
+      <c s="7" r="D72">
+        <v>0.052945301542777</v>
+      </c>
+      <c s="7" r="E72">
+        <v>0.0771554729258657</v>
+      </c>
+      <c s="7" r="F72">
+        <v>0.079145959874839</v>
+      </c>
+      <c s="7" r="G72">
+        <v>0.0802561048243002</v>
+      </c>
+      <c s="3" t="str" r="H72"/>
+      <c s="7" r="I72">
+        <v>0.0960965668600094</v>
+      </c>
+      <c s="7" r="J72">
+        <v>0.135919165580183</v>
+      </c>
+    </row>
+    <row r="73" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A73">
+        <is>
+          <t xml:space="preserve">26137</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B73">
+        <is>
+          <t xml:space="preserve">Otsego, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C73">
+        <v>7</v>
+      </c>
+      <c s="7" r="D73">
+        <v>0.0792739396184479</v>
+      </c>
+      <c s="7" r="E73">
+        <v>0.140667374130409</v>
+      </c>
+      <c s="7" r="F73">
+        <v>0.137348124669836</v>
+      </c>
+      <c s="7" r="G73">
+        <v>0.173972071373157</v>
+      </c>
+      <c s="3" t="str" r="H73"/>
+      <c s="7" r="I73">
+        <v>0.188629876308278</v>
+      </c>
+      <c s="7" r="J73">
+        <v>0.268078685592936</v>
+      </c>
+    </row>
+    <row r="74" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A74">
+        <is>
+          <t xml:space="preserve">26139</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B74">
+        <is>
+          <t xml:space="preserve">Ottawa, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C74">
+        <v>2</v>
+      </c>
+      <c s="7" r="D74">
+        <v>0.0849268120816117</v>
+      </c>
+      <c s="7" r="E74">
+        <v>0.14683907707875</v>
+      </c>
+      <c s="7" r="F74">
+        <v>0.18723642504312</v>
+      </c>
+      <c s="7" r="G74">
+        <v>0.259632057517446</v>
+      </c>
+      <c s="3" t="str" r="H74"/>
+      <c s="7" r="I74">
+        <v>0.293228451223043</v>
+      </c>
+      <c s="7" r="J74">
+        <v>0.356646274390806</v>
+      </c>
+    </row>
+    <row r="75" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A75">
+        <is>
+          <t xml:space="preserve">26141</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B75">
+        <is>
+          <t xml:space="preserve">Presque Isle, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C75">
+        <v>7</v>
+      </c>
+      <c s="7" r="D75">
+        <v>0.0630001454968718</v>
+      </c>
+      <c s="7" r="E75">
+        <v>0.0757857974388824</v>
+      </c>
+      <c s="7" r="F75">
+        <v>0.0874528809908454</v>
+      </c>
+      <c s="7" r="G75">
+        <v>0.114785434387843</v>
+      </c>
+      <c s="3" t="str" r="H75"/>
+      <c s="7" r="I75">
+        <v>0.159180913744808</v>
+      </c>
+      <c s="7" r="J75">
+        <v>0.191677299047993</v>
+      </c>
+    </row>
+    <row r="76" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A76">
+        <is>
+          <t xml:space="preserve">26143</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B76">
+        <is>
+          <t xml:space="preserve">Roscommon, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C76">
+        <v>7</v>
+      </c>
+      <c s="7" r="D76">
+        <v>0.0518200604037514</v>
+      </c>
+      <c s="7" r="E76">
+        <v>0.0805104195354815</v>
+      </c>
+      <c s="7" r="F76">
+        <v>0.0793210945618289</v>
+      </c>
+      <c s="7" r="G76">
+        <v>0.108927628103539</v>
+      </c>
+      <c s="3" t="str" r="H76"/>
+      <c s="7" r="I76">
+        <v>0.145007054397241</v>
+      </c>
+      <c s="7" r="J76">
+        <v>0.171372256552312</v>
+      </c>
+    </row>
+    <row r="77" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A77">
+        <is>
+          <t xml:space="preserve">26145</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B77">
+        <is>
+          <t xml:space="preserve">Saginaw, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C77">
+        <v>3</v>
+      </c>
+      <c s="7" r="D77">
+        <v>0.074204591220298</v>
+      </c>
+      <c s="7" r="E77">
+        <v>0.112576292964986</v>
+      </c>
+      <c s="7" r="F77">
+        <v>0.129717736401482</v>
+      </c>
+      <c s="7" r="G77">
+        <v>0.159011227976745</v>
+      </c>
+      <c s="3" t="str" r="H77"/>
+      <c s="7" r="I77">
+        <v>0.1875297765342</v>
+      </c>
+      <c s="7" r="J77">
+        <v>0.223257476649731</v>
+      </c>
+    </row>
+    <row r="78" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A78">
+        <is>
+          <t xml:space="preserve">26147</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B78">
+        <is>
+          <t xml:space="preserve">St. Clair, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C78">
+        <v>1</v>
+      </c>
+      <c s="7" r="D78">
+        <v>0.0653346271933313</v>
+      </c>
+      <c s="7" r="E78">
+        <v>0.0925171114358225</v>
+      </c>
+      <c s="7" r="F78">
+        <v>0.106542015102859</v>
+      </c>
+      <c s="7" r="G78">
+        <v>0.125707593207105</v>
+      </c>
+      <c s="3" t="str" r="H78"/>
+      <c s="7" r="I78">
+        <v>0.155408681908799</v>
+      </c>
+      <c s="7" r="J78">
+        <v>0.19397287619181</v>
+      </c>
+    </row>
+    <row r="79" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A79">
+        <is>
+          <t xml:space="preserve">26149</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B79">
+        <is>
+          <t xml:space="preserve">St. Joseph, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C79">
+        <v>4</v>
+      </c>
+      <c s="7" r="D79">
+        <v>0.0692927967899996</v>
+      </c>
+      <c s="7" r="E79">
+        <v>0.0928079972848724</v>
+      </c>
+      <c s="7" r="F79">
+        <v>0.108958837772397</v>
+      </c>
+      <c s="7" r="G79">
+        <v>0.127465018715301</v>
+      </c>
+      <c s="3" t="str" r="H79"/>
+      <c s="7" r="I79">
+        <v>0.143136236614981</v>
+      </c>
+      <c s="7" r="J79">
+        <v>0.164371206396412</v>
+      </c>
+    </row>
+    <row r="80" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A80">
+        <is>
+          <t xml:space="preserve">26151</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B80">
+        <is>
+          <t xml:space="preserve">Sanilac, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C80">
+        <v>6</v>
+      </c>
+      <c s="7" r="D80">
+        <v>0.041222688623399</v>
+      </c>
+      <c s="7" r="E80">
+        <v>0.0756637543472729</v>
+      </c>
+      <c s="7" r="F80">
+        <v>0.084199338686821</v>
+      </c>
+      <c s="7" r="G80">
+        <v>0.0998390245573175</v>
+      </c>
+      <c s="3" t="str" r="H80"/>
+      <c s="7" r="I80">
+        <v>0.117296624145939</v>
+      </c>
+      <c s="7" r="J80">
+        <v>0.149289670117987</v>
+      </c>
+    </row>
+    <row r="81" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A81">
+        <is>
+          <t xml:space="preserve">26153</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B81">
+        <is>
+          <t xml:space="preserve">Schoolcraft, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C81">
+        <v>7</v>
+      </c>
+      <c s="7" r="D81">
+        <v>0.0462540716612378</v>
+      </c>
+      <c s="7" r="E81">
+        <v>0.0910490856592878</v>
+      </c>
+      <c s="7" r="F81">
+        <v>0.0886053517632465</v>
+      </c>
+      <c s="7" r="G81">
+        <v>0.113201530612245</v>
+      </c>
+      <c s="3" t="str" r="H81"/>
+      <c s="7" r="I81">
+        <v>0.122941646682654</v>
+      </c>
+      <c s="7" r="J81">
+        <v>0.187307255315696</v>
+      </c>
+    </row>
+    <row r="82" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A82">
+        <is>
+          <t xml:space="preserve">26155</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B82">
+        <is>
+          <t xml:space="preserve">Shiawassee, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C82">
+        <v>4</v>
+      </c>
+      <c s="7" r="D82">
+        <v>0.0616447034972124</v>
+      </c>
+      <c s="7" r="E82">
+        <v>0.0921164607886118</v>
+      </c>
+      <c s="7" r="F82">
+        <v>0.103069819244959</v>
+      </c>
+      <c s="7" r="G82">
+        <v>0.13733702772945</v>
+      </c>
+      <c s="3" t="str" r="H82"/>
+      <c s="7" r="I82">
+        <v>0.144566133108677</v>
+      </c>
+      <c s="7" r="J82">
+        <v>0.182245798711121</v>
+      </c>
+    </row>
+    <row r="83" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A83">
+        <is>
+          <t xml:space="preserve">26157</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B83">
+        <is>
+          <t xml:space="preserve">Tuscola, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C83">
+        <v>6</v>
+      </c>
+      <c s="7" r="D83">
+        <v>0.0505743394082072</v>
+      </c>
+      <c s="7" r="E83">
+        <v>0.078905351896794</v>
+      </c>
+      <c s="7" r="F83">
+        <v>0.0812263414916058</v>
+      </c>
+      <c s="7" r="G83">
+        <v>0.106047812549475</v>
+      </c>
+      <c s="3" t="str" r="H83"/>
+      <c s="7" r="I83">
+        <v>0.128274308466052</v>
+      </c>
+      <c s="7" r="J83">
+        <v>0.141550137755367</v>
+      </c>
+    </row>
+    <row r="84" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A84">
+        <is>
+          <t xml:space="preserve">26159</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B84">
+        <is>
+          <t xml:space="preserve">Van Buren, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C84">
+        <v>2</v>
+      </c>
+      <c s="7" r="D84">
+        <v>0.0613564405932345</v>
+      </c>
+      <c s="7" r="E84">
+        <v>0.101162458065691</v>
+      </c>
+      <c s="7" r="F84">
+        <v>0.121052150463915</v>
+      </c>
+      <c s="7" r="G84">
+        <v>0.143152085036795</v>
+      </c>
+      <c s="3" t="str" r="H84"/>
+      <c s="7" r="I84">
+        <v>0.183843956260467</v>
+      </c>
+      <c s="7" r="J84">
+        <v>0.214127865639232</v>
+      </c>
+    </row>
+    <row r="85" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A85">
+        <is>
+          <t xml:space="preserve">26161</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B85">
+        <is>
+          <t xml:space="preserve">Washtenaw, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C85">
+        <v>2</v>
+      </c>
+      <c s="7" r="D85">
+        <v>0.273940507206988</v>
+      </c>
+      <c s="7" r="E85">
+        <v>0.360674069827519</v>
+      </c>
+      <c s="7" r="F85">
+        <v>0.418714940136591</v>
+      </c>
+      <c s="7" r="G85">
+        <v>0.48135390600464</v>
+      </c>
+      <c s="3" t="str" r="H85"/>
+      <c s="7" r="I85">
+        <v>0.508496866139382</v>
+      </c>
+      <c s="7" r="J85">
+        <v>0.571952575501319</v>
+      </c>
+    </row>
+    <row r="86" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A86">
+        <is>
+          <t xml:space="preserve">26163</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B86">
+        <is>
+          <t xml:space="preserve">Wayne, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C86">
+        <v>1</v>
+      </c>
+      <c s="7" r="D86">
+        <v>0.0774289947758784</v>
+      </c>
+      <c s="7" r="E86">
+        <v>0.111570422331855</v>
+      </c>
+      <c s="7" r="F86">
+        <v>0.136507037787768</v>
+      </c>
+      <c s="7" r="G86">
+        <v>0.172216399752392</v>
+      </c>
+      <c s="3" t="str" r="H86"/>
+      <c s="7" r="I86">
+        <v>0.208175987532218</v>
+      </c>
+      <c s="7" r="J86">
+        <v>0.258168476374634</v>
+      </c>
+    </row>
+    <row r="87" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A87">
+        <is>
+          <t xml:space="preserve">26165</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B87">
+        <is>
+          <t xml:space="preserve">Wexford, MI        </t>
+        </is>
+      </c>
+      <c s="8" r="C87">
+        <v>7</v>
+      </c>
+      <c s="7" r="D87">
+        <v>0.0742223877817098</v>
+      </c>
+      <c s="7" r="E87">
+        <v>0.103215696961439</v>
+      </c>
+      <c s="7" r="F87">
+        <v>0.126287883352413</v>
+      </c>
+      <c s="7" r="G87">
+        <v>0.153418482344102</v>
+      </c>
+      <c s="3" t="str" r="H87"/>
+      <c s="7" r="I87">
+        <v>0.158897355445988</v>
+      </c>
+      <c s="7" r="J87">
+        <v>0.202335465590521</v>
+      </c>
+    </row>
+    <row r="88" ht="0.05" customHeight="1"/>
+    <row r="89" ht="5.95" customHeight="1"/>
+    <row r="90" ht="222.75" customHeight="1">
+      <c s="9" t="inlineStr" r="A90">
         <is>
           <r>
             <rPr>
@@ -2846,10 +3498,29 @@
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="A90:G90"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A70" r:id="rId7"/>
+    <hyperlink ref="A90" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
